--- a/metadatatest.xlsx
+++ b/metadatatest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tmnj\dev\nsi\shape-sql-loader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54957522-EAF1-4D4F-B46C-2D8CA044DCBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57460104-0C68-40B1-A63D-E746B889CEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="1944" windowWidth="19044" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
   <si>
     <t>name</t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>high</t>
+  </si>
+  <si>
+    <t>isPrivate</t>
   </si>
 </sst>
 </file>
@@ -970,10 +973,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D57ED3-1124-4C88-AE59-091C5E99248F}">
-  <dimension ref="B1:D50"/>
+  <dimension ref="B1:E50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -981,7 +984,7 @@
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -989,593 +992,743 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="str">
         <f>CONCATENATE(B2," desc")</f>
         <v>BID desc</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D50" si="0">CONCATENATE(B3," desc")</f>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E50" si="0">CONCATENATE(B3," desc")</f>
         <v>CBFIPS2010 desc</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>41</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
         <f t="shared" si="0"/>
         <v>ST_DAMCAT desc</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>42</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
         <f t="shared" si="0"/>
         <v>OCCTYPE desc</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>43</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="str">
         <f t="shared" si="0"/>
         <v>NUM_STORY desc</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>44</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="str">
         <f t="shared" si="0"/>
         <v>HEIGHT desc</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>45</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="str">
         <f t="shared" si="0"/>
         <v>SQFT desc</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>46</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
         <f t="shared" si="0"/>
         <v>FTPRNTSQFT desc</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>47</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="str">
         <f t="shared" si="0"/>
         <v>FOUND_HT desc</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>48</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="str">
         <f t="shared" si="0"/>
         <v>EXTWALL desc</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>49</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
         <f t="shared" si="0"/>
         <v>FNDTYPE desc</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>50</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
       </c>
-      <c r="D13" t="str">
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
         <f t="shared" si="0"/>
         <v>BSMNT desc</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>51</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="str">
         <f t="shared" si="0"/>
         <v>P_EXTWALL desc</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>52</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="str">
         <f t="shared" si="0"/>
         <v>P_FNDTYPE desc</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>53</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="str">
         <f t="shared" si="0"/>
         <v>P_BSMNT desc</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>54</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="str">
         <f t="shared" si="0"/>
         <v>TOTAL_ROOM desc</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>55</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="str">
         <f t="shared" si="0"/>
         <v>BEDROOMS desc</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>56</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="str">
         <f t="shared" si="0"/>
         <v>TOTAL_BATH desc</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>57</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="str">
         <f t="shared" si="0"/>
         <v>P_GARAGE desc</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>58</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="str">
         <f t="shared" si="0"/>
         <v>PARKINGSP desc</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>59</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="str">
         <f t="shared" si="0"/>
         <v>YRBUILT desc</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>60</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="str">
         <f t="shared" si="0"/>
         <v>MED_YR_BLT desc</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>61</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24" t="str">
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="str">
         <f t="shared" si="0"/>
         <v>NAICS desc</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>62</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25" t="str">
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="str">
         <f t="shared" si="0"/>
         <v>BLDCOSTCAT desc</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>63</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D26" t="str">
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="str">
         <f t="shared" si="0"/>
         <v>VAL_STRUCT desc</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>64</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="str">
         <f t="shared" si="0"/>
         <v>VAL_CONT desc</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>65</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="str">
         <f t="shared" si="0"/>
         <v>VAL_VEHIC desc</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>66</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
-      <c r="D29" t="str">
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="str">
         <f t="shared" si="0"/>
         <v>NUMVEHIC desc</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>67</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30" t="str">
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="str">
         <f t="shared" si="0"/>
         <v>FTPRNTID desc</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>68</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31" t="str">
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="str">
         <f t="shared" si="0"/>
         <v>FTPRNTSRC desc</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>69</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
-      <c r="D32" t="str">
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="str">
         <f t="shared" si="0"/>
         <v>SOURCE desc</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>70</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
       </c>
-      <c r="D33" t="str">
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="str">
         <f t="shared" si="0"/>
         <v>RESUNITS desc</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>71</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
       </c>
-      <c r="D34" t="str">
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="str">
         <f t="shared" si="0"/>
         <v>EMPNUM desc</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>72</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
       </c>
-      <c r="D35" t="str">
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="str">
         <f t="shared" si="0"/>
         <v>STUDENTS desc</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>73</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
       </c>
-      <c r="D36" t="str">
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="str">
         <f t="shared" si="0"/>
         <v>SURPLUS desc</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>74</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
       </c>
-      <c r="D37" t="str">
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="str">
         <f t="shared" si="0"/>
         <v>OTHINSTPOP desc</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>75</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
       </c>
-      <c r="D38" t="str">
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="str">
         <f t="shared" si="0"/>
         <v>NURSGHMPOP desc</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>76</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
       </c>
-      <c r="D39" t="str">
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="str">
         <f t="shared" si="0"/>
         <v>POP2AMU65 desc</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>77</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
       </c>
-      <c r="D40" t="str">
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="str">
         <f t="shared" si="0"/>
         <v>POP2AMO65 desc</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>78</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
       </c>
-      <c r="D41" t="str">
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="str">
         <f t="shared" si="0"/>
         <v>POP2PMU65 desc</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>79</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
       </c>
-      <c r="D42" t="str">
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="str">
         <f t="shared" si="0"/>
         <v>POP2PMO65 desc</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>80</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
       </c>
-      <c r="D43" t="str">
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="str">
         <f t="shared" si="0"/>
         <v>O65DISABLE desc</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>81</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
       </c>
-      <c r="D44" t="str">
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="str">
         <f t="shared" si="0"/>
         <v>U65DISABLE desc</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>82</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
       </c>
-      <c r="D45" t="str">
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="str">
         <f t="shared" si="0"/>
         <v>X desc</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>83</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
       </c>
-      <c r="D46" t="str">
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" t="str">
         <f t="shared" si="0"/>
         <v>Y desc</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>84</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
       </c>
-      <c r="D47" t="str">
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="str">
         <f t="shared" si="0"/>
         <v>APN desc</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>85</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
       </c>
-      <c r="D48" t="str">
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="str">
         <f t="shared" si="0"/>
         <v>CENSREGION desc</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>86</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
       </c>
-      <c r="D49" t="str">
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="str">
         <f t="shared" si="0"/>
         <v>FIRMZONE desc</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>87</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
       </c>
-      <c r="D50" t="str">
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="str">
         <f t="shared" si="0"/>
         <v>FIRMDATE desc</v>
       </c>
